--- a/Mifos Automation Excels/Client/4238-RBI-EI-DB-SAR-REC-RNI-FEE+INTEREST-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/4238-RBI-EI-DB-SAR-REC-RNI-FEE+INTEREST-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -224,10 +224,10 @@
     <t>Click</t>
   </si>
   <si>
-    <t>4238-RBI-EI-DB-SAR-REC-RNI-FEE+INTEREST-FFConMONTonDAY25-FIFC-1-FFROP-DL-FIFR-1-MD-TR-1-OT-PER</t>
-  </si>
-  <si>
     <t>Groupq4238</t>
+  </si>
+  <si>
+    <t>4238-RBI-EI-DB-SAR-REC-RNI-FEE+INT-FFConMONTonDAY25-FIFC-1-FFROP-DL-FIFR-1-MD-TR-1-OT-PER-1st</t>
   </si>
 </sst>
 </file>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1614,7 +1614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1829,7 +1829,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
